--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3223.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3223.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.346948049196916</v>
+        <v>1.476685643196106</v>
       </c>
       <c r="B1">
-        <v>3.066703581222837</v>
+        <v>1.683289051055908</v>
       </c>
       <c r="C1">
-        <v>4.739613203408402</v>
+        <v>2.094408750534058</v>
       </c>
       <c r="D1">
-        <v>2.836969796482757</v>
+        <v>2.155177116394043</v>
       </c>
       <c r="E1">
-        <v>1.266037603768225</v>
+        <v>1.439373731613159</v>
       </c>
     </row>
   </sheetData>
